--- a/excels/pings/alpha01_count20_sfu.xlsx
+++ b/excels/pings/alpha01_count20_sfu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -40,10 +40,19 @@
     <t>ertt</t>
   </si>
   <si>
+    <t>rttAvg</t>
+  </si>
+  <si>
     <t>throughput</t>
   </si>
   <si>
     <t>www.sfu.ca</t>
+  </si>
+  <si>
+    <t>No se han perdido paquetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no se puede calcular el throughput</t>
   </si>
 </sst>
 </file>
@@ -869,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,9 +890,10 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,10 +918,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -920,24 +933,30 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.261093854904</v>
+        <v>0.26322793960599999</v>
       </c>
       <c r="H2" s="1">
-        <v>7.0362334179100001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -946,24 +965,30 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.27159214019799999</v>
+        <v>0.265880823135</v>
       </c>
       <c r="H3" s="1">
-        <v>7.3220229951800002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -972,24 +997,30 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.23815989494299999</v>
+        <v>0.28156900405899998</v>
       </c>
       <c r="H4" s="1">
-        <v>8.99943093041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -998,24 +1029,30 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.27699398994399999</v>
+        <v>0.26965713500999999</v>
       </c>
       <c r="H5" s="1">
-        <v>7.4971156094299998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1024,24 +1061,30 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.255701065063</v>
+        <v>0.245882987976</v>
       </c>
       <c r="H6" s="1">
-        <v>8.3909106568599992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1050,24 +1093,30 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.26132822036699999</v>
+        <v>0.246833086014</v>
       </c>
       <c r="H7" s="1">
-        <v>7.4617095468199999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1076,24 +1125,30 @@
         <v>129</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F8" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.27342796325699997</v>
+        <v>0.26220989227300001</v>
       </c>
       <c r="H8" s="1">
-        <v>6.9231011563399996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1102,24 +1157,30 @@
         <v>149</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F9" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0.32465386390700002</v>
+        <v>0.25953102111800003</v>
       </c>
       <c r="H9" s="1">
-        <v>5.9448727433500004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -1128,24 +1189,30 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.25927781295800001</v>
+        <v>0.26186659319599997</v>
       </c>
       <c r="H10" s="1">
-        <v>7.0855168289600003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -1154,24 +1221,30 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.26948489279600002</v>
+        <v>0.26700651690400001</v>
       </c>
       <c r="H11" s="1">
-        <v>7.3792778333699998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1180,24 +1253,30 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.23869434266199999</v>
+        <v>0.28030517679599998</v>
       </c>
       <c r="H12" s="1">
-        <v>8.9792807866099995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1206,24 +1285,30 @@
         <v>69</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.276899946033</v>
+        <v>0.26809987158999998</v>
       </c>
       <c r="H13" s="1">
-        <v>7.4996618651700002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -1232,24 +1317,30 @@
         <v>89</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.25702711725799998</v>
+        <v>0.247550347409</v>
       </c>
       <c r="H14" s="1">
-        <v>8.3476203394400006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.1</v>
@@ -1258,24 +1349,30 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0.260747655616</v>
+        <v>0.24982523474599999</v>
       </c>
       <c r="H15" s="1">
-        <v>7.4783233320500004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0.1</v>
@@ -1284,24 +1381,30 @@
         <v>129</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0.27306230039000001</v>
+        <v>0.26276870584000001</v>
       </c>
       <c r="H16" s="1">
-        <v>6.93237201143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1310,24 +1413,30 @@
         <v>149</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F17" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0.31889563091200002</v>
+        <v>0.25956013984600002</v>
       </c>
       <c r="H17" s="1">
-        <v>6.0522180910600003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1336,24 +1445,30 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0.25756894302400002</v>
+        <v>0.26089338731</v>
       </c>
       <c r="H18" s="1">
-        <v>7.1325264821200003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -1362,24 +1477,30 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.26733875870899998</v>
+        <v>0.26776941441000002</v>
       </c>
       <c r="H19" s="1">
-        <v>7.4385169791500001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -1388,24 +1509,30 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0.239968917191</v>
+        <v>0.27879019664400001</v>
       </c>
       <c r="H20" s="1">
-        <v>8.9315880990800007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -1414,24 +1541,30 @@
         <v>69</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0.27640247337500001</v>
+        <v>0.26680043045599999</v>
       </c>
       <c r="H21" s="1">
-        <v>7.5131598511800002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.2</v>
@@ -1440,24 +1573,30 @@
         <v>89</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0.25852375391799998</v>
+        <v>0.249295445496</v>
       </c>
       <c r="H22" s="1">
-        <v>8.2992945882000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0.2</v>
@@ -1466,24 +1605,30 @@
         <v>109</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0.26010016948300002</v>
+        <v>0.25248177425599999</v>
       </c>
       <c r="H23" s="1">
-        <v>7.49693966231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0.2</v>
@@ -1492,24 +1637,30 @@
         <v>129</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>0.272279547244</v>
+        <v>0.26343706670599998</v>
       </c>
       <c r="H24" s="1">
-        <v>6.9523012938699997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -1518,24 +1669,30 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F25" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0.31322902616800002</v>
+        <v>0.259712323149</v>
       </c>
       <c r="H25" s="1">
-        <v>6.1617083517899998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>0.3</v>
@@ -1544,24 +1701,30 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0.25633394670499998</v>
+        <v>0.26025289152300002</v>
       </c>
       <c r="H26" s="1">
-        <v>7.1668904204999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>0.3</v>
@@ -1570,24 +1733,30 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0.26518933695000002</v>
+        <v>0.26815441436800003</v>
       </c>
       <c r="H27" s="1">
-        <v>7.4988079034700004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0.3</v>
@@ -1596,24 +1765,30 @@
         <v>49</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F28" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0.24188896598500001</v>
+        <v>0.27708801990600002</v>
       </c>
       <c r="H28" s="1">
-        <v>8.8606915830300004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>0.3</v>
@@ -1622,24 +1797,30 @@
         <v>69</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0.27557297613600001</v>
+        <v>0.26584703214099997</v>
       </c>
       <c r="H29" s="1">
-        <v>7.5357750779800003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>0.3</v>
@@ -1648,24 +1829,30 @@
         <v>89</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F30" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0.26000275084000002</v>
+        <v>0.251088750498</v>
       </c>
       <c r="H30" s="1">
-        <v>8.2520849678699992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>0.3</v>
@@ -1674,24 +1861,30 @@
         <v>109</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F31" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0.25952898981099998</v>
+        <v>0.254751556228</v>
       </c>
       <c r="H31" s="1">
-        <v>7.5134391660300004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>0.3</v>
@@ -1700,24 +1893,30 @@
         <v>129</v>
       </c>
       <c r="D32">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0.27109819328200002</v>
+        <v>0.26409263588499998</v>
       </c>
       <c r="H32" s="1">
-        <v>6.9825970645000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>0.3</v>
@@ -1726,24 +1925,30 @@
         <v>149</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F33" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0.307816797985</v>
+        <v>0.260180237388</v>
       </c>
       <c r="H33" s="1">
-        <v>6.27004737623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>0.4</v>
@@ -1752,24 +1957,30 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0.25611910057100001</v>
+        <v>0.25997729687400001</v>
       </c>
       <c r="H34" s="1">
-        <v>7.1729023840600004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0.4</v>
@@ -1778,24 +1989,30 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>0.26312965442899999</v>
+        <v>0.268191334191</v>
       </c>
       <c r="H35" s="1">
-        <v>7.5575058240999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0.4</v>
@@ -1804,24 +2021,30 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0.24434354093399999</v>
+        <v>0.27527119089000002</v>
       </c>
       <c r="H36" s="1">
-        <v>8.7716807112899993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0.4</v>
@@ -1830,24 +2053,30 @@
         <v>69</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0.27446323674700002</v>
+        <v>0.26523992902999999</v>
       </c>
       <c r="H37" s="1">
-        <v>7.5662445373100002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0.4</v>
@@ -1856,24 +2085,30 @@
         <v>89</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0.261270175908</v>
+        <v>0.25290218777099999</v>
       </c>
       <c r="H38" s="1">
-        <v>8.2120539948799998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0.4</v>
@@ -1882,24 +2117,30 @@
         <v>109</v>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F39" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>0.25919236494199999</v>
+        <v>0.256584400652</v>
       </c>
       <c r="H39" s="1">
-        <v>7.5231972099500002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>0.4</v>
@@ -1908,24 +2149,30 @@
         <v>129</v>
       </c>
       <c r="D40">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>0.26954268328800002</v>
+        <v>0.26462531489300001</v>
       </c>
       <c r="H40" s="1">
-        <v>7.0228930925200004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>0.4</v>
@@ -1934,24 +2181,30 @@
         <v>149</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F41" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0.30279543206300003</v>
+        <v>0.26102699746500002</v>
       </c>
       <c r="H41" s="1">
-        <v>6.3740258345700003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>0.5</v>
@@ -1960,24 +2213,30 @@
         <v>9</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>0.25765025615699999</v>
+        <v>0.26022511348100003</v>
       </c>
       <c r="H42" s="1">
-        <v>7.1302754924</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>0.5</v>
@@ -1986,24 +2245,30 @@
         <v>29</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0.26130443126000003</v>
+        <v>0.26794323401600001</v>
       </c>
       <c r="H43" s="1">
-        <v>7.6102953411399996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.5</v>
@@ -2012,24 +2277,30 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F44" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0.24721191789399999</v>
+        <v>0.27342304910300003</v>
       </c>
       <c r="H44" s="1">
-        <v>8.6699037133400001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>0.5</v>
@@ -2038,24 +2309,30 @@
         <v>69</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F45" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0.27313983114099999</v>
+        <v>0.264902885335</v>
       </c>
       <c r="H45" s="1">
-        <v>7.60290418668</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>0.5</v>
@@ -2064,24 +2341,30 @@
         <v>89</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F46" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>0.26213989330100002</v>
+        <v>0.25471309330899999</v>
       </c>
       <c r="H46" s="1">
-        <v>8.1848083662400004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0.5</v>
@@ -2090,24 +2373,30 @@
         <v>109</v>
       </c>
       <c r="D47">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>0.25923979432499999</v>
+        <v>0.25794813767899999</v>
       </c>
       <c r="H47" s="1">
-        <v>7.5218207985500003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>0.5</v>
@@ -2116,24 +2405,30 @@
         <v>129</v>
       </c>
       <c r="D48">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F48" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0.26763204275899999</v>
+        <v>0.264931825156</v>
       </c>
       <c r="H48" s="1">
-        <v>7.0730299297599997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -2142,24 +2437,30 @@
         <v>149</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F49" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0.29821616763600001</v>
+        <v>0.26218583398299999</v>
       </c>
       <c r="H49" s="1">
-        <v>6.4719023179199997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>0.6</v>
@@ -2168,24 +2469,30 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0.26183283996599999</v>
+        <v>0.26137252540200001</v>
       </c>
       <c r="H50" s="1">
-        <v>7.0163746737299997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0.6</v>
@@ -2194,24 +2501,30 @@
         <v>29</v>
       </c>
       <c r="D51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0.25987999357300001</v>
+        <v>0.26749017123399998</v>
       </c>
       <c r="H51" s="1">
-        <v>7.6520084077800004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>0.6</v>
@@ -2220,24 +2533,30 @@
         <v>49</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F52" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0.25038562463699998</v>
+        <v>0.27161775365599999</v>
       </c>
       <c r="H52" s="1">
-        <v>8.5600102962999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>0.6</v>
@@ -2246,24 +2565,30 @@
         <v>69</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F53" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0.271712199125</v>
+        <v>0.264704179298</v>
       </c>
       <c r="H53" s="1">
-        <v>7.64285141565</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>0.6</v>
@@ -2272,24 +2597,30 @@
         <v>89</v>
       </c>
       <c r="D54">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F54" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>0.26248706438500002</v>
+        <v>0.25650749479200002</v>
       </c>
       <c r="H54" s="1">
-        <v>8.1739829611899992</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>0.6</v>
@@ -2298,24 +2629,30 @@
         <v>109</v>
       </c>
       <c r="D55">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F55" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>0.25976242609599998</v>
+        <v>0.25885197571200003</v>
       </c>
       <c r="H55" s="1">
-        <v>7.5066871913400002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>0.6</v>
@@ -2324,24 +2661,30 @@
         <v>129</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F56" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>0.26538677824200002</v>
+        <v>0.26493820023300002</v>
       </c>
       <c r="H56" s="1">
-        <v>7.1328702248800004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>0.6</v>
@@ -2350,24 +2693,30 @@
         <v>149</v>
       </c>
       <c r="D57">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F57" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>0.293971972039</v>
+        <v>0.263478155316</v>
       </c>
       <c r="H57" s="1">
-        <v>6.5653398627500001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>0.7</v>
@@ -2376,24 +2725,30 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0.269751853466</v>
+        <v>0.26420283913199999</v>
       </c>
       <c r="H58" s="1">
-        <v>6.8103973466100003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>0.7</v>
@@ -2402,24 +2757,30 @@
         <v>29</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F59" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0.25905192735900001</v>
+        <v>0.26696129092400001</v>
       </c>
       <c r="H59" s="1">
-        <v>7.6764682514100002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>0.7</v>
@@ -2428,24 +2789,30 @@
         <v>49</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F60" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0.25377929996300003</v>
+        <v>0.26987907531299998</v>
       </c>
       <c r="H60" s="1">
-        <v>8.4455411660799999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>0.7</v>
@@ -2454,24 +2821,30 @@
         <v>69</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F61" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>0.27029471271799999</v>
+        <v>0.26449201146099999</v>
       </c>
       <c r="H61" s="1">
-        <v>7.6829322514099996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>0.7</v>
@@ -2480,24 +2853,30 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F62" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0.26239510981199998</v>
+        <v>0.258249734959</v>
       </c>
       <c r="H62" s="1">
-        <v>8.1768474776400009</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>0.7</v>
@@ -2506,24 +2885,30 @@
         <v>109</v>
       </c>
       <c r="D63">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F63" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>0.26070924206399998</v>
+        <v>0.25936567437500002</v>
       </c>
       <c r="H63" s="1">
-        <v>7.4794252069000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>0.7</v>
@@ -2532,24 +2917,30 @@
         <v>129</v>
       </c>
       <c r="D64">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F64" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>0.262908923292</v>
+        <v>0.26468378804199999</v>
       </c>
       <c r="H64" s="1">
-        <v>7.2000958541099997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>0.7</v>
@@ -2558,24 +2949,30 @@
         <v>149</v>
       </c>
       <c r="D65">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F65" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>0.28970906405699998</v>
+        <v>0.26466294476800001</v>
       </c>
       <c r="H65" s="1">
-        <v>6.6619451926500002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>0.8</v>
@@ -2584,24 +2981,30 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>0.28267187309300001</v>
+        <v>0.270249401891</v>
       </c>
       <c r="H66" s="1">
-        <v>6.4991160492500004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>0.8</v>
@@ -2610,24 +3013,30 @@
         <v>29</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F67" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0.25977657824299999</v>
+        <v>0.26674100265</v>
       </c>
       <c r="H67" s="1">
-        <v>7.6550546214999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>0.8</v>
@@ -2636,24 +3045,30 @@
         <v>49</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F68" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>0.25726787262299999</v>
+        <v>0.26819047921700001</v>
       </c>
       <c r="H68" s="1">
-        <v>8.3310189612199999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>0.8</v>
@@ -2662,24 +3077,30 @@
         <v>69</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F69" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>0.26883877107999998</v>
+        <v>0.26418983116599998</v>
       </c>
       <c r="H69" s="1">
-        <v>7.7245404648499996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>0.8</v>
@@ -2688,24 +3109,30 @@
         <v>89</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F70" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>0.26244216846700003</v>
+        <v>0.259776902207</v>
       </c>
       <c r="H70" s="1">
-        <v>8.1753812824499992</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>0.8</v>
@@ -2714,24 +3141,30 @@
         <v>109</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F71" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>0.26188465778499997</v>
+        <v>0.25966741736400001</v>
       </c>
       <c r="H71" s="1">
-        <v>7.4458553366900002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>0.8</v>
@@ -2740,24 +3173,30 @@
         <v>129</v>
       </c>
       <c r="D72">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F72" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>0.260638914359</v>
+        <v>0.26441803179000001</v>
       </c>
       <c r="H72" s="1">
-        <v>7.2628043792200003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>0.8</v>
@@ -2766,24 +3205,30 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F73" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>0.28459234863499999</v>
+        <v>0.26547407226300002</v>
       </c>
       <c r="H73" s="1">
-        <v>6.7817209978399999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74">
         <v>0.9</v>
@@ -2792,24 +3237,30 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F74" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>0.30203705024700001</v>
+        <v>0.28235730547100002</v>
       </c>
       <c r="H74" s="1">
-        <v>6.0824236814099999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>0.9</v>
@@ -2818,24 +3269,30 @@
         <v>29</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>0.26927253696999998</v>
+        <v>0.26914769892599999</v>
       </c>
       <c r="H75" s="1">
-        <v>7.3850973374900004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>0.9</v>
@@ -2844,24 +3301,30 @@
         <v>49</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F76" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>0.26216240373900002</v>
+        <v>0.26709956452299999</v>
       </c>
       <c r="H76" s="1">
-        <v>8.1754801389100002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>0.9</v>
@@ -2870,24 +3333,30 @@
         <v>69</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F77" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>0.26732284309999998</v>
+        <v>0.26416557801500001</v>
       </c>
       <c r="H77" s="1">
-        <v>7.7683446040200002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>0.9</v>
@@ -2896,24 +3365,30 @@
         <v>89</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F78" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>0.263790891129</v>
+        <v>0.26089555413499999</v>
       </c>
       <c r="H78" s="1">
-        <v>8.1335818027299993</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>0.9</v>
@@ -2922,24 +3397,30 @@
         <v>109</v>
       </c>
       <c r="D79">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F79" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>0.26347803232900002</v>
+        <v>0.26027210729</v>
       </c>
       <c r="H79" s="1">
-        <v>7.4008267768299998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>0.9</v>
@@ -2948,24 +3429,30 @@
         <v>129</v>
       </c>
       <c r="D80">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F80" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G80" s="1">
-        <v>0.26008919671500003</v>
+        <v>0.264188322157</v>
       </c>
       <c r="H80" s="1">
-        <v>7.27815485038</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>0.9</v>
@@ -2974,24 +3461,30 @@
         <v>149</v>
       </c>
       <c r="D81">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F81" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G81" s="1">
-        <v>0.27660817723100001</v>
+        <v>0.26543672482899999</v>
       </c>
       <c r="H81" s="1">
-        <v>6.9774723432999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.264756791544</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3000,24 +3493,30 @@
         <v>9</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F82" s="1">
-        <v>0.444444444444</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H82" s="1">
-        <v>5.5759586928599996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.27091283268400002</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3026,24 +3525,30 @@
         <v>29</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1">
-        <v>0.37931034482800002</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H83" s="1">
-        <v>6.0357458595000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.269556407271</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3052,24 +3557,30 @@
         <v>49</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F84" s="1">
-        <v>0.32653061224500002</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H84" s="1">
-        <v>6.5052851416699999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.26824952144999997</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3078,24 +3589,30 @@
         <v>69</v>
       </c>
       <c r="D85">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F85" s="1">
-        <v>0.34782608695700001</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H85" s="1">
-        <v>6.30299863788</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.26693469545100001</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3104,24 +3621,30 @@
         <v>89</v>
       </c>
       <c r="D86">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F86" s="1">
-        <v>0.32584269662900001</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H86" s="1">
-        <v>6.5121484653400001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.26537967264000001</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3130,24 +3653,30 @@
         <v>109</v>
       </c>
       <c r="D87">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F87" s="1">
-        <v>0.39449541284400003</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H87" s="1">
-        <v>5.9184408280499996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.26468126270699999</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3156,24 +3685,30 @@
         <v>129</v>
       </c>
       <c r="D88">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F88" s="1">
-        <v>0.418604651163</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H88" s="1">
-        <v>5.7454792960300001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.26477958250400002</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3182,19 +3717,25 @@
         <v>149</v>
       </c>
       <c r="D89">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F89" s="1">
-        <v>0.40268456375799999</v>
+        <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>0.329471111298</v>
+        <v>0.30553913116499998</v>
       </c>
       <c r="H89" s="1">
-        <v>5.8579518518700002</v>
+        <v>0.264756791544</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
